--- a/AEGIS V0.01/Data Para Cargar.xlsx
+++ b/AEGIS V0.01/Data Para Cargar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristian\Documents\GitHub\Aegis-v0-01\AEGIS V0.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFB03B6-C9BA-4F20-812C-22EC91F758B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578DF4BB-5273-4B5D-9645-CD92A72A5EB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="1470" windowWidth="21150" windowHeight="11385" xr2:uid="{26F81D70-4151-4763-A00A-5ADEEBB2E45F}"/>
+    <workbookView xWindow="5475" yWindow="2205" windowWidth="21150" windowHeight="11385" xr2:uid="{26F81D70-4151-4763-A00A-5ADEEBB2E45F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Productos</t>
   </si>
@@ -138,23 +138,65 @@
     <t>EstadoCuenta</t>
   </si>
   <si>
-    <t xml:space="preserve">Cristian </t>
-  </si>
-  <si>
     <t>Iglesias</t>
   </si>
   <si>
-    <t xml:space="preserve">Martin </t>
-  </si>
-  <si>
-    <t>Dominguez</t>
+    <t xml:space="preserve">Roxana </t>
+  </si>
+  <si>
+    <t>Bailot</t>
+  </si>
+  <si>
+    <t>Roxane1254@gmail.com</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Edu.iglesias67@gmail.com</t>
+  </si>
+  <si>
+    <t>Briasn</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>caca</t>
+  </si>
+  <si>
+    <t>Lara.Brian@utn.edu.ar</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Juan@edu.utn.ar</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>ANGEL.SIMON@UTN.EDU</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Codigo proveedor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +208,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,10 +283,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -251,8 +302,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A489CE92-D04F-462B-9955-1AE50C6DEC70}">
-  <dimension ref="A3:P25"/>
+  <dimension ref="A3:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +638,7 @@
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="8.5703125" customWidth="1"/>
     <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -647,19 +700,25 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -675,19 +734,25 @@
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -703,18 +768,26 @@
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="7">
+        <v>25619</v>
+      </c>
+      <c r="C6" s="7">
+        <v>24595</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="7">
-        <v>36164</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>36216</v>
+      </c>
+      <c r="I6" s="7">
+        <v>31213</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -729,18 +802,26 @@
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="4">
+        <v>21539557</v>
+      </c>
+      <c r="C7" s="4">
+        <v>18110536</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="4">
-        <v>41578679</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>41879532</v>
+      </c>
+      <c r="I7" s="4">
+        <v>36156432</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -755,16 +836,26 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -779,16 +870,26 @@
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="4">
+        <v>1158858814</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1166744456</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -865,16 +966,24 @@
       <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -889,16 +998,24 @@
       <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -970,152 +1087,179 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>16</v>
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2">
-        <v>300</v>
-      </c>
-      <c r="C20" s="2">
-        <v>300</v>
-      </c>
-      <c r="D20" s="2">
-        <v>800</v>
-      </c>
-      <c r="E20" s="2">
-        <v>400</v>
-      </c>
-      <c r="F20" s="2">
-        <v>600</v>
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2">
-        <v>1.3</v>
+        <v>300</v>
       </c>
       <c r="C21" s="2">
-        <v>1.3</v>
+        <v>300</v>
       </c>
       <c r="D21" s="2">
-        <v>1.4</v>
+        <v>800</v>
       </c>
       <c r="E21" s="2">
-        <v>1.4</v>
+        <v>400</v>
       </c>
       <c r="F21" s="2">
-        <v>1.5</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="2">
-        <f>B20*B21</f>
+      <c r="B23" s="2">
+        <f>B21*B22</f>
         <v>390</v>
       </c>
-      <c r="C22" s="2">
-        <f t="shared" ref="C22:F22" si="0">C20*C21</f>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:F23" si="0">C21*C22</f>
         <v>390</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>1120</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2">
-        <v>10</v>
-      </c>
-      <c r="F23" s="2">
-        <v>5</v>
-      </c>
-    </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{A8DAF364-E8C2-4478-BA9A-A42DE9215A90}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{FBFCB180-2F6A-4E0F-952A-85B51DC953BF}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{15980BEC-D54A-411C-A51F-9EBBAAD31C71}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{1062C132-AB37-405D-9062-6F6B8740AFF7}"/>
+    <hyperlink ref="I8" r:id="rId5" xr:uid="{488F06B1-85CE-4B2B-BD9E-33398F88B5D5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>